--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Adam12-Itga9.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Adam12-Itga9.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>2.912067666666667</v>
+        <v>4.987252666666667</v>
       </c>
       <c r="H2">
-        <v>8.736203</v>
+        <v>14.961758</v>
       </c>
       <c r="I2">
-        <v>0.04936487121546265</v>
+        <v>0.07310203833248144</v>
       </c>
       <c r="J2">
-        <v>0.04936487121546266</v>
+        <v>0.07310203833248144</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.237200333333333</v>
+        <v>3.135398666666667</v>
       </c>
       <c r="N2">
-        <v>6.711601</v>
+        <v>9.406196000000001</v>
       </c>
       <c r="O2">
-        <v>0.1121050933480713</v>
+        <v>0.1723049126704688</v>
       </c>
       <c r="P2">
-        <v>0.1121050933480713</v>
+        <v>0.1723049126704688</v>
       </c>
       <c r="Q2">
-        <v>6.514878754555889</v>
+        <v>15.63702536139645</v>
       </c>
       <c r="R2">
-        <v>58.63390879100299</v>
+        <v>140.733228252568</v>
       </c>
       <c r="S2">
-        <v>0.005534053495724961</v>
+        <v>0.01259584033091148</v>
       </c>
       <c r="T2">
-        <v>0.005534053495724962</v>
+        <v>0.01259584033091148</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>2.912067666666667</v>
+        <v>4.987252666666667</v>
       </c>
       <c r="H3">
-        <v>8.736203</v>
+        <v>14.961758</v>
       </c>
       <c r="I3">
-        <v>0.04936487121546265</v>
+        <v>0.07310203833248144</v>
       </c>
       <c r="J3">
-        <v>0.04936487121546266</v>
+        <v>0.07310203833248144</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>9.461046</v>
       </c>
       <c r="O3">
-        <v>0.158029573718759</v>
+        <v>0.1733096678828815</v>
       </c>
       <c r="P3">
-        <v>0.158029573718759</v>
+        <v>0.1733096678828815</v>
       </c>
       <c r="Q3">
-        <v>9.183735383148667</v>
+        <v>15.72820896431867</v>
       </c>
       <c r="R3">
-        <v>82.65361844833799</v>
+        <v>141.553880678868</v>
       </c>
       <c r="S3">
-        <v>0.007801109554861001</v>
+        <v>0.01266928998496403</v>
       </c>
       <c r="T3">
-        <v>0.007801109554861002</v>
+        <v>0.01266928998496403</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>2.912067666666667</v>
+        <v>4.987252666666667</v>
       </c>
       <c r="H4">
-        <v>8.736203</v>
+        <v>14.961758</v>
       </c>
       <c r="I4">
-        <v>0.04936487121546265</v>
+        <v>0.07310203833248144</v>
       </c>
       <c r="J4">
-        <v>0.04936487121546266</v>
+        <v>0.07310203833248144</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.123499666666667</v>
+        <v>0.4900660000000001</v>
       </c>
       <c r="N4">
-        <v>3.370499</v>
+        <v>1.470198</v>
       </c>
       <c r="O4">
-        <v>0.05629805839539346</v>
+        <v>0.02693143306797965</v>
       </c>
       <c r="P4">
-        <v>0.05629805839539345</v>
+        <v>0.02693143306797965</v>
       </c>
       <c r="Q4">
-        <v>3.271707052810778</v>
+        <v>2.444082965342667</v>
       </c>
       <c r="R4">
-        <v>29.445363475297</v>
+        <v>21.996746688084</v>
       </c>
       <c r="S4">
-        <v>0.002779146402369194</v>
+        <v>0.001968742652484107</v>
       </c>
       <c r="T4">
-        <v>0.002779146402369194</v>
+        <v>0.001968742652484107</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>2.912067666666667</v>
+        <v>4.987252666666667</v>
       </c>
       <c r="H5">
-        <v>8.736203</v>
+        <v>14.961758</v>
       </c>
       <c r="I5">
-        <v>0.04936487121546265</v>
+        <v>0.07310203833248144</v>
       </c>
       <c r="J5">
-        <v>0.04936487121546266</v>
+        <v>0.07310203833248144</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>13.44189533333333</v>
+        <v>11.417657</v>
       </c>
       <c r="N5">
-        <v>40.325686</v>
+        <v>34.252971</v>
       </c>
       <c r="O5">
-        <v>0.6735672745377762</v>
+        <v>0.62745398637867</v>
       </c>
       <c r="P5">
-        <v>0.6735672745377762</v>
+        <v>0.6274539863786701</v>
       </c>
       <c r="Q5">
-        <v>39.14370877891756</v>
+        <v>56.94274032033533</v>
       </c>
       <c r="R5">
-        <v>352.293379010258</v>
+        <v>512.484662883018</v>
       </c>
       <c r="S5">
-        <v>0.0332505617625075</v>
+        <v>0.04586816536412182</v>
       </c>
       <c r="T5">
-        <v>0.03325056176250751</v>
+        <v>0.04586816536412183</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>162.069607</v>
       </c>
       <c r="I6">
-        <v>0.9157920526223629</v>
+        <v>0.7918600623966918</v>
       </c>
       <c r="J6">
-        <v>0.915792052622363</v>
+        <v>0.7918600623966917</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.237200333333333</v>
+        <v>3.135398666666667</v>
       </c>
       <c r="N6">
-        <v>6.711601</v>
+        <v>9.406196000000001</v>
       </c>
       <c r="O6">
-        <v>0.1121050933480713</v>
+        <v>0.1723049126704688</v>
       </c>
       <c r="P6">
-        <v>0.1121050933480713</v>
+        <v>0.1723049126704688</v>
       </c>
       <c r="Q6">
-        <v>120.8607262678674</v>
+        <v>169.3842765649969</v>
       </c>
       <c r="R6">
-        <v>1087.746536410807</v>
+        <v>1524.458489084972</v>
       </c>
       <c r="S6">
-        <v>0.1026649535466519</v>
+        <v>0.136441378898494</v>
       </c>
       <c r="T6">
-        <v>0.1026649535466519</v>
+        <v>0.1364413788984939</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>162.069607</v>
       </c>
       <c r="I7">
-        <v>0.9157920526223629</v>
+        <v>0.7918600623966918</v>
       </c>
       <c r="J7">
-        <v>0.915792052622363</v>
+        <v>0.7918600623966917</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>9.461046</v>
       </c>
       <c r="O7">
-        <v>0.158029573718759</v>
+        <v>0.1733096678828815</v>
       </c>
       <c r="P7">
-        <v>0.158029573718759</v>
+        <v>0.1733096678828815</v>
       </c>
       <c r="Q7">
         <v>170.3720007809913</v>
@@ -883,10 +883,10 @@
         <v>1533.348007028922</v>
       </c>
       <c r="S7">
-        <v>0.1447222276909393</v>
+        <v>0.1372370044236884</v>
       </c>
       <c r="T7">
-        <v>0.1447222276909394</v>
+        <v>0.1372370044236884</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>162.069607</v>
       </c>
       <c r="I8">
-        <v>0.9157920526223629</v>
+        <v>0.7918600623966918</v>
       </c>
       <c r="J8">
-        <v>0.915792052622363</v>
+        <v>0.7918600623966917</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.123499666666667</v>
+        <v>0.4900660000000001</v>
       </c>
       <c r="N8">
-        <v>3.370499</v>
+        <v>1.470198</v>
       </c>
       <c r="O8">
-        <v>0.05629805839539346</v>
+        <v>0.02693143306797965</v>
       </c>
       <c r="P8">
-        <v>0.05629805839539345</v>
+        <v>0.02693143306797965</v>
       </c>
       <c r="Q8">
-        <v>60.69504981376589</v>
+        <v>26.47493467468734</v>
       </c>
       <c r="R8">
-        <v>546.255448323893</v>
+        <v>238.274412072186</v>
       </c>
       <c r="S8">
-        <v>0.05155731445657102</v>
+        <v>0.0213259262696427</v>
       </c>
       <c r="T8">
-        <v>0.05155731445657102</v>
+        <v>0.02132592626964269</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>162.069607</v>
       </c>
       <c r="I9">
-        <v>0.9157920526223629</v>
+        <v>0.7918600623966918</v>
       </c>
       <c r="J9">
-        <v>0.915792052622363</v>
+        <v>0.7918600623966917</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>13.44189533333333</v>
+        <v>11.417657</v>
       </c>
       <c r="N9">
-        <v>40.325686</v>
+        <v>34.252971</v>
       </c>
       <c r="O9">
-        <v>0.6735672745377762</v>
+        <v>0.62745398637867</v>
       </c>
       <c r="P9">
-        <v>0.6735672745377762</v>
+        <v>0.6274539863786701</v>
       </c>
       <c r="Q9">
-        <v>726.1742313361557</v>
+        <v>616.8183942835997</v>
       </c>
       <c r="R9">
-        <v>6535.568082025401</v>
+        <v>5551.365548552397</v>
       </c>
       <c r="S9">
-        <v>0.6168475569282007</v>
+        <v>0.4968557528048667</v>
       </c>
       <c r="T9">
-        <v>0.6168475569282007</v>
+        <v>0.4968557528048667</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.011625333333333</v>
+        <v>9.123312666666665</v>
       </c>
       <c r="H10">
-        <v>6.034876</v>
+        <v>27.369938</v>
       </c>
       <c r="I10">
-        <v>0.03410072734588315</v>
+        <v>0.1337274842190096</v>
       </c>
       <c r="J10">
-        <v>0.03410072734588315</v>
+        <v>0.1337274842190096</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.237200333333333</v>
+        <v>3.135398666666667</v>
       </c>
       <c r="N10">
-        <v>6.711601</v>
+        <v>9.406196000000001</v>
       </c>
       <c r="O10">
-        <v>0.1121050933480713</v>
+        <v>0.1723049126704688</v>
       </c>
       <c r="P10">
-        <v>0.1121050933480713</v>
+        <v>0.1723049126704688</v>
       </c>
       <c r="Q10">
-        <v>4.500408866275111</v>
+        <v>28.60522237064978</v>
       </c>
       <c r="R10">
-        <v>40.503679796476</v>
+        <v>257.447001335848</v>
       </c>
       <c r="S10">
-        <v>0.003822865222347359</v>
+        <v>0.02304190248999794</v>
       </c>
       <c r="T10">
-        <v>0.003822865222347359</v>
+        <v>0.02304190248999794</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.011625333333333</v>
+        <v>9.123312666666665</v>
       </c>
       <c r="H11">
-        <v>6.034876</v>
+        <v>27.369938</v>
       </c>
       <c r="I11">
-        <v>0.03410072734588315</v>
+        <v>0.1337274842190096</v>
       </c>
       <c r="J11">
-        <v>0.03410072734588315</v>
+        <v>0.1337274842190096</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>9.461046</v>
       </c>
       <c r="O11">
-        <v>0.158029573718759</v>
+        <v>0.1733096678828815</v>
       </c>
       <c r="P11">
-        <v>0.158029573718759</v>
+        <v>0.1733096678828815</v>
       </c>
       <c r="Q11">
-        <v>6.344026604477333</v>
+        <v>28.77202693723866</v>
       </c>
       <c r="R11">
-        <v>57.096239440296</v>
+        <v>258.948242435148</v>
       </c>
       <c r="S11">
-        <v>0.005388923405969542</v>
+        <v>0.02317626587680982</v>
       </c>
       <c r="T11">
-        <v>0.005388923405969542</v>
+        <v>0.02317626587680982</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.011625333333333</v>
+        <v>9.123312666666665</v>
       </c>
       <c r="H12">
-        <v>6.034876</v>
+        <v>27.369938</v>
       </c>
       <c r="I12">
-        <v>0.03410072734588315</v>
+        <v>0.1337274842190096</v>
       </c>
       <c r="J12">
-        <v>0.03410072734588315</v>
+        <v>0.1337274842190096</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.123499666666667</v>
+        <v>0.4900660000000001</v>
       </c>
       <c r="N12">
-        <v>3.370499</v>
+        <v>1.470198</v>
       </c>
       <c r="O12">
-        <v>0.05629805839539346</v>
+        <v>0.02693143306797965</v>
       </c>
       <c r="P12">
-        <v>0.05629805839539345</v>
+        <v>0.02693143306797965</v>
       </c>
       <c r="Q12">
-        <v>2.260060391458222</v>
+        <v>4.471025345302666</v>
       </c>
       <c r="R12">
-        <v>20.340543523124</v>
+        <v>40.239228107724</v>
       </c>
       <c r="S12">
-        <v>0.00191980473944392</v>
+        <v>0.003601472790593561</v>
       </c>
       <c r="T12">
-        <v>0.00191980473944392</v>
+        <v>0.003601472790593561</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.011625333333333</v>
+        <v>9.123312666666665</v>
       </c>
       <c r="H13">
-        <v>6.034876</v>
+        <v>27.369938</v>
       </c>
       <c r="I13">
-        <v>0.03410072734588315</v>
+        <v>0.1337274842190096</v>
       </c>
       <c r="J13">
-        <v>0.03410072734588315</v>
+        <v>0.1337274842190096</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>13.44189533333333</v>
+        <v>11.417657</v>
       </c>
       <c r="N13">
-        <v>40.325686</v>
+        <v>34.252971</v>
       </c>
       <c r="O13">
-        <v>0.6735672745377762</v>
+        <v>0.62745398637867</v>
       </c>
       <c r="P13">
-        <v>0.6735672745377762</v>
+        <v>0.6274539863786701</v>
       </c>
       <c r="Q13">
-        <v>27.04005718054844</v>
+        <v>104.1668547317553</v>
       </c>
       <c r="R13">
-        <v>243.360514624936</v>
+        <v>937.501692585798</v>
       </c>
       <c r="S13">
-        <v>0.02296913397812233</v>
+        <v>0.08390784306160824</v>
       </c>
       <c r="T13">
-        <v>0.02296913397812233</v>
+        <v>0.08390784306160826</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.04379166666666667</v>
+        <v>0.08940066666666667</v>
       </c>
       <c r="H14">
-        <v>0.131375</v>
+        <v>0.268202</v>
       </c>
       <c r="I14">
-        <v>0.0007423488162914033</v>
+        <v>0.001310415051817319</v>
       </c>
       <c r="J14">
-        <v>0.0007423488162914033</v>
+        <v>0.001310415051817319</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.237200333333333</v>
+        <v>3.135398666666667</v>
       </c>
       <c r="N14">
-        <v>6.711601</v>
+        <v>9.406196000000001</v>
       </c>
       <c r="O14">
-        <v>0.1121050933480713</v>
+        <v>0.1723049126704688</v>
       </c>
       <c r="P14">
-        <v>0.1121050933480713</v>
+        <v>0.1723049126704688</v>
       </c>
       <c r="Q14">
-        <v>0.09797073126388889</v>
+        <v>0.2803067310657778</v>
       </c>
       <c r="R14">
-        <v>0.8817365813749999</v>
+        <v>2.522760579592001</v>
       </c>
       <c r="S14">
-        <v>8.322108334717803E-05</v>
+        <v>0.0002257909510654511</v>
       </c>
       <c r="T14">
-        <v>8.322108334717803E-05</v>
+        <v>0.000225790951065451</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.04379166666666667</v>
+        <v>0.08940066666666667</v>
       </c>
       <c r="H15">
-        <v>0.131375</v>
+        <v>0.268202</v>
       </c>
       <c r="I15">
-        <v>0.0007423488162914033</v>
+        <v>0.001310415051817319</v>
       </c>
       <c r="J15">
-        <v>0.0007423488162914033</v>
+        <v>0.001310415051817319</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>9.461046</v>
       </c>
       <c r="O15">
-        <v>0.158029573718759</v>
+        <v>0.1733096678828815</v>
       </c>
       <c r="P15">
-        <v>0.158029573718759</v>
+        <v>0.1733096678828815</v>
       </c>
       <c r="Q15">
-        <v>0.1381049909166667</v>
+        <v>0.2819412732546667</v>
       </c>
       <c r="R15">
-        <v>1.24294491825</v>
+        <v>2.537471459292</v>
       </c>
       <c r="S15">
-        <v>0.0001173130669891558</v>
+        <v>0.0002271075974191885</v>
       </c>
       <c r="T15">
-        <v>0.0001173130669891558</v>
+        <v>0.0002271075974191885</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.04379166666666667</v>
+        <v>0.08940066666666667</v>
       </c>
       <c r="H16">
-        <v>0.131375</v>
+        <v>0.268202</v>
       </c>
       <c r="I16">
-        <v>0.0007423488162914033</v>
+        <v>0.001310415051817319</v>
       </c>
       <c r="J16">
-        <v>0.0007423488162914033</v>
+        <v>0.001310415051817319</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.123499666666667</v>
+        <v>0.4900660000000001</v>
       </c>
       <c r="N16">
-        <v>3.370499</v>
+        <v>1.470198</v>
       </c>
       <c r="O16">
-        <v>0.05629805839539346</v>
+        <v>0.02693143306797965</v>
       </c>
       <c r="P16">
-        <v>0.05629805839539345</v>
+        <v>0.02693143306797965</v>
       </c>
       <c r="Q16">
-        <v>0.04919992290277778</v>
+        <v>0.04381222711066667</v>
       </c>
       <c r="R16">
-        <v>0.442799306125</v>
+        <v>0.394310043996</v>
       </c>
       <c r="S16">
-        <v>4.179279700932464E-05</v>
+        <v>3.529135525929122E-05</v>
       </c>
       <c r="T16">
-        <v>4.179279700932463E-05</v>
+        <v>3.529135525929121E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.04379166666666667</v>
+        <v>0.08940066666666667</v>
       </c>
       <c r="H17">
-        <v>0.131375</v>
+        <v>0.268202</v>
       </c>
       <c r="I17">
-        <v>0.0007423488162914033</v>
+        <v>0.001310415051817319</v>
       </c>
       <c r="J17">
-        <v>0.0007423488162914033</v>
+        <v>0.001310415051817319</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>13.44189533333333</v>
+        <v>11.417657</v>
       </c>
       <c r="N17">
-        <v>40.325686</v>
+        <v>34.252971</v>
       </c>
       <c r="O17">
-        <v>0.6735672745377762</v>
+        <v>0.62745398637867</v>
       </c>
       <c r="P17">
-        <v>0.6735672745377762</v>
+        <v>0.6274539863786701</v>
       </c>
       <c r="Q17">
-        <v>0.5886429998055556</v>
+        <v>1.020746147571333</v>
       </c>
       <c r="R17">
-        <v>5.297786998249999</v>
+        <v>9.186715328142</v>
       </c>
       <c r="S17">
-        <v>0.0005000218689457448</v>
+        <v>0.0008222251480733884</v>
       </c>
       <c r="T17">
-        <v>0.0005000218689457448</v>
+        <v>0.0008222251480733884</v>
       </c>
     </row>
   </sheetData>
